--- a/Gantt_Chart_COE127L_C1_Group06.xlsx
+++ b/Gantt_Chart_COE127L_C1_Group06.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nica21\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen_santillan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>43353</v>
       </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>43359</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
